--- a/Attendance_F.xlsx
+++ b/Attendance_F.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonou\Dropbox\git\math110\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FA83AF-6D90-4A00-AD2F-A5E027FB9B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03003185-B813-4E4F-9743-601308FACCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance Sheet - 101 (2)" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
   <si>
     <t>First Name</t>
   </si>
@@ -285,12 +285,6 @@
     <t>Grigsby</t>
   </si>
   <si>
-    <t>MarÃ­a JosÃ©</t>
-  </si>
-  <si>
-    <t>GuzmÃ¡n Peralta</t>
-  </si>
-  <si>
     <t>Bennett</t>
   </si>
   <si>
@@ -373,6 +367,18 @@
   </si>
   <si>
     <t>Villar-Rocafort</t>
+  </si>
+  <si>
+    <t>Assign 1</t>
+  </si>
+  <si>
+    <t>Assign 2</t>
+  </si>
+  <si>
+    <t>Guzmán Peralta</t>
+  </si>
+  <si>
+    <t>María José</t>
   </si>
 </sst>
 </file>
@@ -711,7 +717,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -902,6 +908,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -955,7 +996,7 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -984,7 +1025,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1040,7 +1093,25 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1048,6 +1119,52 @@
           <color indexed="64"/>
         </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1137,22 +1254,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -1167,14 +1268,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -1191,13 +1290,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEFEF233-0463-4B5E-850D-3FB669CEEDDE}" name="Table1" displayName="Table1" ref="A2:D37" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A2:D37" xr:uid="{FEFEF233-0463-4B5E-850D-3FB669CEEDDE}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A14C81B9-A9F1-45D0-97AC-F7BB6CA08F11}" name="ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{BFBF0083-E846-49DB-97E9-A9AFB2319FD3}" name="First Name" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{4C4F2094-32AA-413C-A689-B83F7B1024AF}" name="Last Name" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{80D7F214-AE27-4E12-A519-B9FA4BBF3523}" name="Signature" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEFEF233-0463-4B5E-850D-3FB669CEEDDE}" name="Table1" displayName="Table1" ref="A2:F37" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A2:F37" xr:uid="{FEFEF233-0463-4B5E-850D-3FB669CEEDDE}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A14C81B9-A9F1-45D0-97AC-F7BB6CA08F11}" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{BFBF0083-E846-49DB-97E9-A9AFB2319FD3}" name="First Name" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{4C4F2094-32AA-413C-A689-B83F7B1024AF}" name="Last Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{80D7F214-AE27-4E12-A519-B9FA4BBF3523}" name="Signature" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{EBD36A1F-FF5F-4E20-8EBF-D5AF971F6B8E}" name="Assign 1" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{32550A73-FDC5-4C49-895D-FA074CE9F3F1}" name="Assign 2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1490,22 +1591,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="6.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
@@ -1513,7 +1616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>44</v>
       </c>
@@ -1523,11 +1626,17 @@
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1537,9 +1646,11 @@
       <c r="C3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1549,9 +1660,11 @@
       <c r="C4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1561,9 +1674,11 @@
       <c r="C5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1573,9 +1688,11 @@
       <c r="C6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1585,9 +1702,11 @@
       <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1597,9 +1716,11 @@
       <c r="C8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1609,9 +1730,11 @@
       <c r="C9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1621,9 +1744,11 @@
       <c r="C10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1633,9 +1758,11 @@
       <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1645,9 +1772,11 @@
       <c r="C12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1657,9 +1786,11 @@
       <c r="C13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1669,9 +1800,11 @@
       <c r="C14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1681,9 +1814,11 @@
       <c r="C15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -1693,9 +1828,11 @@
       <c r="C16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -1705,9 +1842,11 @@
       <c r="C17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -1717,9 +1856,11 @@
       <c r="C18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -1729,9 +1870,11 @@
       <c r="C19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -1741,9 +1884,11 @@
       <c r="C20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -1753,117 +1898,137 @@
       <c r="C21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -1871,35 +2036,41 @@
         <v>52</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -1907,45 +2078,53 @@
         <v>47</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>35</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
